--- a/medicine/Psychotrope/Severny_(cépage)/Severny_(cépage).xlsx
+++ b/medicine/Psychotrope/Severny_(cépage)/Severny_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Severny_(c%C3%A9page)</t>
+          <t>Severny_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le severny N[N 1] (Северный, « nordique » en russe), est un cépage noir récent (1936) d'origine russe. Son nom est aussi transcrit servernyi, severnii, ou siewiernyj.
 Il s'agit du résultat d'un croisement interspécifique entre le Seianetze Malengra et Vitis amurensis. L'hybride a été obtenu en 1936 à l'Institut de recherche sur la vigne de Rostov-sur-le-Don en Russie.
